--- a/DadosLoja.xlsx
+++ b/DadosLoja.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83912500-D7B5-4F87-8CAB-466BE39395F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C914E93A-90F0-4248-97A3-33AC6AA38562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
   <si>
     <t xml:space="preserve">Tecido </t>
   </si>
@@ -48,9 +48,6 @@
     <t>Preço_Unitario</t>
   </si>
   <si>
-    <t>Valor_Total</t>
-  </si>
-  <si>
     <t>Unidades_Kg</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>R$ 56,00</t>
   </si>
   <si>
-    <t xml:space="preserve">R$ 336,00	</t>
-  </si>
-  <si>
     <t>R$ 224,00</t>
   </si>
   <si>
@@ -81,12 +75,6 @@
     <t>162.57 kg</t>
   </si>
   <si>
-    <t>R$ 56,01</t>
-  </si>
-  <si>
-    <t>R$ 504,00</t>
-  </si>
-  <si>
     <t>R$ 392,00</t>
   </si>
   <si>
@@ -96,21 +84,12 @@
     <t>36.70 kg</t>
   </si>
   <si>
-    <t>R$ 56,02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R$ 112,00	</t>
-  </si>
-  <si>
     <t>Azul Claro</t>
   </si>
   <si>
     <t>36.95 kg</t>
   </si>
   <si>
-    <t>R$ 56,03</t>
-  </si>
-  <si>
     <t>R$ 112,00</t>
   </si>
   <si>
@@ -120,12 +99,6 @@
     <t>90.67 kg</t>
   </si>
   <si>
-    <t>R$ 56,04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R$ 280,00	</t>
-  </si>
-  <si>
     <t>R$ 168,00</t>
   </si>
   <si>
@@ -135,114 +108,78 @@
     <t>108.24 kg</t>
   </si>
   <si>
-    <t>R$ 56,05</t>
+    <t>R$ 280,00</t>
+  </si>
+  <si>
+    <t>Marrom Café</t>
+  </si>
+  <si>
+    <t>74.47 kg</t>
+  </si>
+  <si>
+    <t>Cinza Mescla</t>
+  </si>
+  <si>
+    <t>54.59 kg</t>
+  </si>
+  <si>
+    <t>Grafite</t>
+  </si>
+  <si>
+    <t>53.91 kg</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>73.34 kg</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>54.42 kg</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>72.60 kg</t>
+  </si>
+  <si>
+    <t>Verde TW</t>
+  </si>
+  <si>
+    <t>129.73 kg</t>
   </si>
   <si>
     <t>R$ 336,00</t>
   </si>
   <si>
-    <t>R$ 280,00</t>
-  </si>
-  <si>
-    <t>Marrom Café</t>
-  </si>
-  <si>
-    <t>74.47 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,06</t>
-  </si>
-  <si>
-    <t>Cinza Mescla</t>
-  </si>
-  <si>
-    <t>54.59 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,07</t>
-  </si>
-  <si>
-    <t>Grafite</t>
-  </si>
-  <si>
-    <t>53.91 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,08</t>
-  </si>
-  <si>
-    <t>Amarelo</t>
-  </si>
-  <si>
-    <t>73.34 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,09</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>54.42 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,10</t>
-  </si>
-  <si>
-    <t>Branco</t>
-  </si>
-  <si>
-    <t>72.60 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,11</t>
-  </si>
-  <si>
-    <t>Verde TW</t>
-  </si>
-  <si>
-    <t>129.73 kg</t>
-  </si>
-  <si>
-    <t>R$ 56,12</t>
-  </si>
-  <si>
     <t>Chocolate</t>
   </si>
   <si>
     <t>108.86 kg</t>
   </si>
   <si>
-    <t>R$ 56,13</t>
-  </si>
-  <si>
     <t>Vinho</t>
   </si>
   <si>
     <t>53.94 kg</t>
   </si>
   <si>
-    <t>R$ 56,14</t>
-  </si>
-  <si>
     <t>Azul Escuro</t>
   </si>
   <si>
     <t>53.58 kg</t>
   </si>
   <si>
-    <t>R$ 56,15</t>
-  </si>
-  <si>
     <t>Vermelho</t>
   </si>
   <si>
     <t>36.76 kg</t>
   </si>
   <si>
-    <t>R$ 56,16</t>
-  </si>
-  <si>
     <t>Microfibra Poliamida</t>
   </si>
   <si>
@@ -252,120 +189,78 @@
     <t>R$ 65,00</t>
   </si>
   <si>
+    <t>R$ 650,00</t>
+  </si>
+  <si>
+    <t>161.77 kg</t>
+  </si>
+  <si>
+    <t>R$ 520,00</t>
+  </si>
+  <si>
+    <t>143.23 kg</t>
+  </si>
+  <si>
+    <t>R$ 390,00</t>
+  </si>
+  <si>
+    <t>90.66 kg</t>
+  </si>
+  <si>
+    <t>R$ 260,00</t>
+  </si>
+  <si>
+    <t>Rosa claro</t>
+  </si>
+  <si>
+    <t>127.82 kg</t>
+  </si>
+  <si>
+    <t>R$ 325,00</t>
+  </si>
+  <si>
+    <t>54.62 kg</t>
+  </si>
+  <si>
+    <t>R$ 130,00</t>
+  </si>
+  <si>
+    <t>Castanho</t>
+  </si>
+  <si>
+    <t>36.35 kg</t>
+  </si>
+  <si>
+    <t>Rubi</t>
+  </si>
+  <si>
+    <t>73.51 kg</t>
+  </si>
+  <si>
+    <t>R$ 195,00</t>
+  </si>
+  <si>
+    <t>Marfim</t>
+  </si>
+  <si>
+    <t>36.24 kg</t>
+  </si>
+  <si>
+    <t>Lilás</t>
+  </si>
+  <si>
+    <t>55.15 kg</t>
+  </si>
+  <si>
+    <t>91.54 kg</t>
+  </si>
+  <si>
+    <t>249.38 kg</t>
+  </si>
+  <si>
     <t>R$ 780,00</t>
   </si>
   <si>
-    <t>R$ 650,00</t>
-  </si>
-  <si>
-    <t>161.77 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,01</t>
-  </si>
-  <si>
-    <t>R$ 585,00</t>
-  </si>
-  <si>
-    <t>R$ 520,00</t>
-  </si>
-  <si>
-    <t>143.23 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,02</t>
-  </si>
-  <si>
-    <t>R$ 390,00</t>
-  </si>
-  <si>
-    <t>90.66 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,03</t>
-  </si>
-  <si>
-    <t>R$ 325,00</t>
-  </si>
-  <si>
-    <t>R$ 260,00</t>
-  </si>
-  <si>
-    <t>Rosa claro</t>
-  </si>
-  <si>
-    <t>127.82 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,04</t>
-  </si>
-  <si>
-    <t>R$ 455,00</t>
-  </si>
-  <si>
-    <t>54.62 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,05</t>
-  </si>
-  <si>
-    <t>R$ 195,00</t>
-  </si>
-  <si>
-    <t>R$ 130,00</t>
-  </si>
-  <si>
-    <t>Castanho</t>
-  </si>
-  <si>
-    <t>36.35 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,06</t>
-  </si>
-  <si>
-    <t>Rubi</t>
-  </si>
-  <si>
-    <t>73.51 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,07</t>
-  </si>
-  <si>
-    <t>Marfim</t>
-  </si>
-  <si>
-    <t>36.24 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,08</t>
-  </si>
-  <si>
-    <t>Lilás</t>
-  </si>
-  <si>
-    <t>55.15 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,09</t>
-  </si>
-  <si>
-    <t>91.54 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,10</t>
-  </si>
-  <si>
-    <t>249.38 kg</t>
-  </si>
-  <si>
-    <t>R$ 65,11</t>
-  </si>
-  <si>
-    <t>R$ 910,00</t>
-  </si>
-  <si>
     <t>Microfibra Poliéster</t>
   </si>
   <si>
@@ -375,76 +270,43 @@
     <t>R$43,00</t>
   </si>
   <si>
+    <t>R$ 172,00</t>
+  </si>
+  <si>
+    <t>181.22 kg</t>
+  </si>
+  <si>
+    <t>R$ 387,00</t>
+  </si>
+  <si>
+    <t>127.51 kg</t>
+  </si>
+  <si>
     <t>R$ 215,00</t>
   </si>
   <si>
-    <t>R$ 172,00</t>
-  </si>
-  <si>
-    <t>181.22 kg</t>
-  </si>
-  <si>
-    <t>R$43,01</t>
-  </si>
-  <si>
-    <t>R$ 430,00</t>
-  </si>
-  <si>
-    <t>R$ 387,00</t>
-  </si>
-  <si>
-    <t>127.51 kg</t>
-  </si>
-  <si>
-    <t>R$43,02</t>
-  </si>
-  <si>
-    <t>R$ 301,00</t>
-  </si>
-  <si>
     <t>91.76 kg</t>
   </si>
   <si>
-    <t>R$43,03</t>
-  </si>
-  <si>
     <t>53.99 kg</t>
   </si>
   <si>
-    <t>R$43,04</t>
-  </si>
-  <si>
     <t>R$ 129,00</t>
   </si>
   <si>
     <t>54.85 kg</t>
   </si>
   <si>
-    <t>R$43,05</t>
-  </si>
-  <si>
-    <t>R$ 129,01</t>
-  </si>
-  <si>
     <t>R$ 86,00</t>
   </si>
   <si>
     <t>72.09 kg</t>
   </si>
   <si>
-    <t>R$43,06</t>
-  </si>
-  <si>
     <t>90.33 kg</t>
   </si>
   <si>
-    <t>R$43,07</t>
-  </si>
-  <si>
     <t>36.15 kg</t>
-  </si>
-  <si>
-    <t>R$43,08</t>
   </si>
   <si>
     <t>R$ 43,00</t>
@@ -869,24 +731,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,999 +766,882 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="4">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="4">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
+      <c r="G21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="4">
+        <v>51</v>
+      </c>
+      <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
+      <c r="G22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="4">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
+      <c r="G23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="4">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
+      <c r="G24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="4">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
+      <c r="G25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="4">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+        <v>51</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="4">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="4">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
+      <c r="G28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="4">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="4">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4">
         <v>12</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
+      <c r="G30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="4">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+      <c r="G31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
         <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="4">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
         <v>9</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
+      <c r="G32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="4">
+        <v>78</v>
+      </c>
+      <c r="F33" s="4">
         <v>5</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
+      <c r="G33" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="4">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4">
         <v>4</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
+      <c r="G34" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
+        <v>78</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="4">
+        <v>78</v>
+      </c>
+      <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
+      <c r="G36" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="4">
-        <v>3</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="4">
+        <v>78</v>
+      </c>
+      <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>138</v>
+      <c r="G39" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
